--- a/exampleProblems/menthol_CDCl3/menthol.xlsx
+++ b/exampleProblems/menthol_CDCl3/menthol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/menthol_CDCl3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{F83C820E-46DB-4620-A4BC-1E984ECFACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C7ABC11-E794-B843-9B4F-113876BC062E}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{F83C820E-46DB-4620-A4BC-1E984ECFACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE3BE93-EC3A-40B3-97D3-5208E07012B4}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1180" windowWidth="23880" windowHeight="13620" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
     <sheet name="NOESY" sheetId="10" r:id="rId8"/>
-    <sheet name="www" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -210,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,12 +662,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" thickBot="1">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>34</v>
       </c>
@@ -676,7 +675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -701,13 +700,13 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -734,7 +733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -763,7 +762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -792,7 +791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -821,7 +820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -850,7 +849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -879,7 +878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -908,7 +907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -937,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -966,7 +965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -995,7 +994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1126,9 +1125,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>29</v>
@@ -1161,7 +1160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1193,7 +1192,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1225,7 +1224,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1257,7 +1256,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1289,7 +1288,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1320,7 +1319,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1352,7 +1351,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1384,7 +1383,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1416,7 +1415,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1448,7 +1447,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1480,7 +1479,7 @@
       <c r="K11" s="6"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1511,7 +1510,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1542,7 +1541,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1574,7 +1573,7 @@
       <c r="K14" s="9"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1591,9 +1590,9 @@
       <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>29</v>
@@ -1637,7 +1636,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1670,7 +1669,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1703,7 +1702,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1736,7 +1735,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1769,7 +1768,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1802,7 +1801,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1835,7 +1834,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1868,7 +1867,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1901,7 +1900,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1934,7 +1933,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1967,7 +1966,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1982,7 +1981,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1997,7 +1996,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2012,7 +2011,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2027,7 +2026,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2042,7 +2041,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2057,7 +2056,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2081,7 +2080,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2092,7 +2091,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2103,7 +2102,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2114,7 +2113,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2125,7 +2124,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2136,7 +2135,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2147,7 +2146,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2158,7 +2157,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2169,7 +2168,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2180,7 +2179,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2191,7 +2190,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2202,7 +2201,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2213,7 +2212,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2224,7 +2223,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2235,7 +2234,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2246,7 +2245,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2257,7 +2256,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2282,9 +2281,9 @@
       <selection activeCell="L1" sqref="L1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>29</v>
@@ -2328,7 +2327,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2361,7 +2360,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2394,7 +2393,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2427,7 +2426,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2460,7 +2459,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2493,7 +2492,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2526,7 +2525,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2559,7 +2558,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2592,7 +2591,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2625,7 +2624,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2658,7 +2657,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2691,7 +2690,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2724,7 +2723,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2757,7 +2756,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2790,7 +2789,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2823,7 +2822,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2856,7 +2855,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2889,7 +2888,7 @@
       <c r="U18" s="1"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2922,7 +2921,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2955,7 +2954,7 @@
       <c r="U20" s="1"/>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2988,7 +2987,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="6"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3021,7 +3020,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="6"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3054,7 +3053,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3087,7 +3086,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -3120,7 +3119,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3151,7 +3150,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3182,7 +3181,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3213,7 +3212,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3244,7 +3243,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3275,7 +3274,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3306,7 +3305,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3337,7 +3336,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3368,7 +3367,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3399,7 +3398,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -3430,7 +3429,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3461,7 +3460,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3492,7 +3491,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3523,7 +3522,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3554,7 +3553,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3585,7 +3584,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3616,7 +3615,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -3647,7 +3646,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -3678,7 +3677,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -3709,7 +3708,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -3740,7 +3739,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -3769,7 +3768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -3827,7 +3826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3870,9 +3869,9 @@
       <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -3899,7 +3898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3924,7 +3923,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3949,7 +3948,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3974,7 +3973,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3999,7 +3998,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4024,7 +4023,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4049,7 +4048,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4074,7 +4073,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4099,7 +4098,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4124,7 +4123,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4149,7 +4148,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -4160,7 +4159,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4171,7 +4170,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4182,7 +4181,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -4207,9 +4206,9 @@
       <selection activeCell="C2" sqref="C2:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -4236,7 +4235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4261,7 +4260,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4286,7 +4285,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4311,7 +4310,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4336,7 +4335,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4361,7 +4360,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -4386,7 +4385,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -4411,7 +4410,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -4436,7 +4435,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4461,7 +4460,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4486,7 +4485,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -4564,13 +4563,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E0E32A-106A-4C33-8637-454DAF9740D0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="24">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>29</v>
@@ -4603,7 +4602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4634,7 +4633,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4665,7 +4664,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4701,31 +4700,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABFA2B-A200-7842-A14E-14C4F1ABDC92}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4946,14 +4933,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -4966,6 +4945,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
